--- a/Experiments/230621_fdh_test/data/compiled.xlsx
+++ b/Experiments/230621_fdh_test/data/compiled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230621_fdh_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C918B5-D2F3-D94B-9C52-54F5C3357B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1619A50-4B87-2646-8D22-D84C9B6932F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="15960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="25480" windowHeight="13880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mal" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,18 @@
     <sheet name="acetylcoa" sheetId="4" r:id="rId4"/>
     <sheet name="pyr" sheetId="5" r:id="rId5"/>
     <sheet name="gly" sheetId="6" r:id="rId6"/>
-    <sheet name="serine" sheetId="7" r:id="rId7"/>
-    <sheet name="citrate" sheetId="8" r:id="rId8"/>
-    <sheet name="nad" sheetId="9" r:id="rId9"/>
-    <sheet name="fum" sheetId="10" r:id="rId10"/>
+    <sheet name="ser-2" sheetId="7" r:id="rId7"/>
+    <sheet name="serine" sheetId="8" r:id="rId8"/>
+    <sheet name="citrate" sheetId="9" r:id="rId9"/>
+    <sheet name="nad" sheetId="10" r:id="rId10"/>
+    <sheet name="fum" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="575">
   <si>
     <t>empty_480</t>
   </si>
@@ -178,9 +179,15 @@
     <t>13270.59</t>
   </si>
   <si>
+    <t>15687.81</t>
+  </si>
+  <si>
     <t>2531047.97</t>
   </si>
   <si>
+    <t>13513.50</t>
+  </si>
+  <si>
     <t>266829.14</t>
   </si>
   <si>
@@ -694,30 +701,15 @@
     <t>17552.74</t>
   </si>
   <si>
-    <t>17702.55</t>
-  </si>
-  <si>
     <t>360581.44</t>
   </si>
   <si>
     <t>419753.81</t>
   </si>
   <si>
-    <t>12293.49</t>
-  </si>
-  <si>
     <t>671920.17</t>
   </si>
   <si>
-    <t>19610.00</t>
-  </si>
-  <si>
-    <t>11445.06</t>
-  </si>
-  <si>
-    <t>17596.85</t>
-  </si>
-  <si>
     <t>2604204.85</t>
   </si>
   <si>
@@ -775,15 +767,9 @@
     <t>268573.83</t>
   </si>
   <si>
-    <t>16622.69</t>
-  </si>
-  <si>
     <t>407396.64</t>
   </si>
   <si>
-    <t>10151.41</t>
-  </si>
-  <si>
     <t>437222.48</t>
   </si>
   <si>
@@ -829,9 +815,6 @@
     <t>517672.00</t>
   </si>
   <si>
-    <t>21986.04</t>
-  </si>
-  <si>
     <t>54543.80</t>
   </si>
   <si>
@@ -847,9 +830,6 @@
     <t>19135.85</t>
   </si>
   <si>
-    <t>19828.17</t>
-  </si>
-  <si>
     <t>14085.00</t>
   </si>
   <si>
@@ -1000,6 +980,9 @@
     <t>954723.92</t>
   </si>
   <si>
+    <t>46671.25</t>
+  </si>
+  <si>
     <t>434607.51</t>
   </si>
   <si>
@@ -1012,6 +995,99 @@
     <t>489315.48</t>
   </si>
   <si>
+    <t>101676.50</t>
+  </si>
+  <si>
+    <t>88283.71</t>
+  </si>
+  <si>
+    <t>86212.23</t>
+  </si>
+  <si>
+    <t>92384.83</t>
+  </si>
+  <si>
+    <t>85458.65</t>
+  </si>
+  <si>
+    <t>53461.25</t>
+  </si>
+  <si>
+    <t>61121.67</t>
+  </si>
+  <si>
+    <t>64523.43</t>
+  </si>
+  <si>
+    <t>84146.68</t>
+  </si>
+  <si>
+    <t>579506.45</t>
+  </si>
+  <si>
+    <t>1101512.82</t>
+  </si>
+  <si>
+    <t>107916.59</t>
+  </si>
+  <si>
+    <t>93341.72</t>
+  </si>
+  <si>
+    <t>87268.58</t>
+  </si>
+  <si>
+    <t>97150.39</t>
+  </si>
+  <si>
+    <t>89332.23</t>
+  </si>
+  <si>
+    <t>52303.21</t>
+  </si>
+  <si>
+    <t>55829.47</t>
+  </si>
+  <si>
+    <t>67176.69</t>
+  </si>
+  <si>
+    <t>83985.28</t>
+  </si>
+  <si>
+    <t>1798575.64</t>
+  </si>
+  <si>
+    <t>1034372.88</t>
+  </si>
+  <si>
+    <t>1078913.78</t>
+  </si>
+  <si>
+    <t>1641510.42</t>
+  </si>
+  <si>
+    <t>1739291.84</t>
+  </si>
+  <si>
+    <t>89869.54</t>
+  </si>
+  <si>
+    <t>2109495.33</t>
+  </si>
+  <si>
+    <t>2086870.62</t>
+  </si>
+  <si>
+    <t>1524586.58</t>
+  </si>
+  <si>
+    <t>1688190.09</t>
+  </si>
+  <si>
+    <t>1389283.37</t>
+  </si>
+  <si>
     <t>1647767.38</t>
   </si>
   <si>
@@ -1294,15 +1370,27 @@
     <t>3186.01</t>
   </si>
   <si>
+    <t>9460.36</t>
+  </si>
+  <si>
     <t>7747.47</t>
   </si>
   <si>
     <t>798275.35</t>
   </si>
   <si>
+    <t>2203.78</t>
+  </si>
+  <si>
+    <t>13656.52</t>
+  </si>
+  <si>
     <t>8093.24</t>
   </si>
   <si>
+    <t>46860.83</t>
+  </si>
+  <si>
     <t>6674.12</t>
   </si>
   <si>
@@ -1336,6 +1424,9 @@
     <t>3033.28</t>
   </si>
   <si>
+    <t>16276.91</t>
+  </si>
+  <si>
     <t>10705.01</t>
   </si>
   <si>
@@ -1366,6 +1457,21 @@
     <t>3561.55</t>
   </si>
   <si>
+    <t>8480.72</t>
+  </si>
+  <si>
+    <t>15480.83</t>
+  </si>
+  <si>
+    <t>1844.33</t>
+  </si>
+  <si>
+    <t>16730.77</t>
+  </si>
+  <si>
+    <t>10283.57</t>
+  </si>
+  <si>
     <t>3958.76</t>
   </si>
   <si>
@@ -1384,6 +1490,9 @@
     <t>8929.85</t>
   </si>
   <si>
+    <t>13843.38</t>
+  </si>
+  <si>
     <t>758391.22</t>
   </si>
   <si>
@@ -1417,10 +1526,31 @@
     <t>697139.83</t>
   </si>
   <si>
+    <t>15334.08</t>
+  </si>
+  <si>
+    <t>1056.05</t>
+  </si>
+  <si>
+    <t>29448.54</t>
+  </si>
+  <si>
+    <t>8325.74</t>
+  </si>
+  <si>
     <t>4585.51</t>
   </si>
   <si>
     <t>3432.07</t>
+  </si>
+  <si>
+    <t>16743.43</t>
+  </si>
+  <si>
+    <t>16700.59</t>
+  </si>
+  <si>
+    <t>16482.64</t>
   </si>
   <si>
     <t>259472</t>
@@ -1994,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A2" zoomScale="213" workbookViewId="0">
+      <selection activeCell="E10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2027,6 +2157,9 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -2110,7 +2243,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2132,7 +2265,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -2143,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2179,7 +2312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -2190,7 +2323,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2200,8 +2333,11 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2216,11 +2352,517 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>475</v>
+      </c>
+      <c r="E6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" t="s">
+        <v>450</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" t="s">
+        <v>479</v>
+      </c>
+      <c r="E12" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>419</v>
+      </c>
+      <c r="C14" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D19" t="s">
+        <v>480</v>
+      </c>
+      <c r="E19" t="s">
+        <v>491</v>
+      </c>
+      <c r="F19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" t="s">
+        <v>459</v>
+      </c>
+      <c r="D20" t="s">
+        <v>481</v>
+      </c>
+      <c r="E20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" t="s">
+        <v>493</v>
+      </c>
+      <c r="F21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D22" t="s">
+        <v>483</v>
+      </c>
+      <c r="E22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>428</v>
+      </c>
+      <c r="C23" t="s">
+        <v>462</v>
+      </c>
+      <c r="D23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E23" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" t="s">
+        <v>463</v>
+      </c>
+      <c r="D24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E24" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D25" t="s">
+        <v>486</v>
+      </c>
+      <c r="E25" t="s">
+        <v>497</v>
+      </c>
+      <c r="F25" t="s">
+        <v>504</v>
+      </c>
+      <c r="G25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+      <c r="C28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C29" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>435</v>
+      </c>
+      <c r="C30" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+      <c r="C34" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>440</v>
+      </c>
+      <c r="C35" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>441</v>
+      </c>
+      <c r="C36" t="s">
+        <v>474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2234,35 +2876,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,87 +2912,87 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="C6" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="C8" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="C12" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,10 +3000,10 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="C13" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,40 +3011,40 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="C14" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="C15" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="C17" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,10 +3052,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,10 +3085,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="C21" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,10 +3096,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="C22" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,32 +3107,32 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C23" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="C24" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,10 +3140,10 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="C26" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,10 +3151,10 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,10 +3162,10 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,10 +3173,10 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="C29" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,10 +3184,10 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="C30" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,10 +3195,10 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="C31" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,40 +3206,40 @@
         <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="C32" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="C33" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="C34" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2605,10 +3247,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="C36" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -2620,9 +3262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2639,27 +3279,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,68 +3307,68 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2736,10 +3376,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2747,10 +3387,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2758,10 +3398,10 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2769,10 +3409,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2780,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2794,26 +3434,25 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2821,7 +3460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="167" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2843,10 +3482,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2854,10 +3493,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,10 +3504,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,10 +3515,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,10 +3526,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2898,10 +3537,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,13 +3548,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2923,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2958,111 +3597,111 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3070,27 +3709,27 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3098,16 +3737,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3115,24 +3754,24 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3140,19 +3779,19 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3160,16 +3799,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3181,8 +3820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="223" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3209,38 +3848,38 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3248,55 +3887,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3304,110 +3943,110 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F13" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D14" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3415,10 +4054,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3426,222 +4065,195 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D21" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s">
         <v>225</v>
       </c>
-      <c r="D25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
-      </c>
-      <c r="D27" t="s">
-        <v>252</v>
-      </c>
-      <c r="E27" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
-      </c>
-      <c r="D28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3649,10 +4261,10 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3660,10 +4272,10 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3671,35 +4283,35 @@
         <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C35" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3707,14 +4319,15 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3722,8 +4335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A19" zoomScale="221" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3747,13 +4360,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3761,32 +4374,32 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3794,48 +4407,48 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C9" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C10" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3843,10 +4456,10 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3854,193 +4467,196 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="D21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C25" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4050,9 +4666,236 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4069,43 +4912,43 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4113,21 +4956,21 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -4135,8 +4978,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4153,24 +4996,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4178,21 +5021,21 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4200,43 +5043,43 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4244,10 +5087,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="C10" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4255,40 +5098,40 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="C14" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4296,10 +5139,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4307,10 +5150,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4318,21 +5161,21 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4340,10 +5183,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4351,10 +5194,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4362,10 +5205,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4373,10 +5216,10 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C22" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4384,470 +5227,13 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C23" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>386</v>
-      </c>
-      <c r="C6" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C9" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>393</v>
-      </c>
-      <c r="C13" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>394</v>
-      </c>
-      <c r="C14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>395</v>
-      </c>
-      <c r="C15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>396</v>
-      </c>
-      <c r="C16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" t="s">
-        <v>398</v>
-      </c>
-      <c r="C18" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>399</v>
-      </c>
-      <c r="C19" t="s">
-        <v>429</v>
-      </c>
-      <c r="D19" t="s">
-        <v>445</v>
-      </c>
-      <c r="E19" t="s">
-        <v>455</v>
-      </c>
-      <c r="F19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C20" t="s">
-        <v>430</v>
-      </c>
-      <c r="D20" t="s">
-        <v>446</v>
-      </c>
-      <c r="E20" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>401</v>
-      </c>
-      <c r="C21" t="s">
-        <v>431</v>
-      </c>
-      <c r="D21" t="s">
-        <v>447</v>
-      </c>
-      <c r="E21" t="s">
-        <v>457</v>
-      </c>
-      <c r="F21" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C22" t="s">
-        <v>432</v>
-      </c>
-      <c r="D22" t="s">
-        <v>448</v>
-      </c>
-      <c r="E22" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>403</v>
-      </c>
-      <c r="C23" t="s">
-        <v>433</v>
-      </c>
-      <c r="D23" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>404</v>
-      </c>
-      <c r="C24" t="s">
-        <v>434</v>
-      </c>
-      <c r="D24" t="s">
-        <v>450</v>
-      </c>
-      <c r="E24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" t="s">
-        <v>406</v>
-      </c>
-      <c r="C26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
-        <v>407</v>
-      </c>
-      <c r="C27" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>408</v>
-      </c>
-      <c r="C28" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C29" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>410</v>
-      </c>
-      <c r="C30" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>411</v>
-      </c>
-      <c r="C31" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>413</v>
-      </c>
-      <c r="C33" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B34" t="s">
-        <v>414</v>
-      </c>
-      <c r="C34" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>415</v>
-      </c>
-      <c r="C35" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" t="s">
-        <v>416</v>
-      </c>
-      <c r="C36" t="s">
-        <v>444</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>